--- a/NodeExcelParser/schedules.xlsx
+++ b/NodeExcelParser/schedules.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="167">
   <si>
     <t>ScheduleId</t>
   </si>
@@ -485,6 +485,36 @@
   </si>
   <si>
     <t>SQW Test Sched 7</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>PHX02</t>
+  </si>
+  <si>
+    <t>PHX01</t>
+  </si>
+  <si>
+    <t>DEN01</t>
+  </si>
+  <si>
+    <t>SLC01</t>
+  </si>
+  <si>
+    <t>SCL01</t>
+  </si>
+  <si>
+    <t>CHD02</t>
+  </si>
+  <si>
+    <t>SLC02</t>
+  </si>
+  <si>
+    <t>LVS01</t>
+  </si>
+  <si>
+    <t>SRW</t>
   </si>
 </sst>
 </file>
@@ -1314,3451 +1344,3761 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K103"/>
+  <dimension ref="A1:L103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="C107" sqref="C107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="209.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="42.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="209.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>157</v>
       </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>16</v>
       </c>
       <c r="B2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="1">
         <v>41639.368055555555</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
         <v>41639.666666666664</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
       <c r="F2">
         <v>1</v>
       </c>
-      <c r="H2" s="1">
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1">
         <v>41639.370488807872</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J2" s="1">
         <v>41654.801605173612</v>
       </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
       <c r="K2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D3" s="1">
         <v>41604.333333333336</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
         <v>41604.645833333336</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
       <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>41604.344565127314</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J3" s="1">
         <v>41619.537035034722</v>
       </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
       <c r="K3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>26</v>
       </c>
       <c r="B4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D4" s="1">
         <v>41590.291666666664</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <v>41590.645833333336</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
       <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>41590.322923344909</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J4" s="1">
         <v>41596.667793020832</v>
       </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
       <c r="K4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>27</v>
       </c>
       <c r="B5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D5" s="1">
         <v>41566.583333333336</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="1">
         <v>41567.583333333336</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
       <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <v>41566.617914039351</v>
       </c>
-      <c r="I5" s="1">
+      <c r="J5" s="1">
         <v>41583.688210034721</v>
       </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
       <c r="K5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>31</v>
       </c>
       <c r="B6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="1">
+      <c r="D6" s="1">
         <v>41227.333333333336</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="1">
         <v>41227.479166666664</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
       <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
         <v>41227.333365474537</v>
       </c>
-      <c r="I6" s="1">
+      <c r="J6" s="1">
         <v>41281.55256408565</v>
       </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
       <c r="K6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>32</v>
       </c>
       <c r="B7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C7" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="1">
+      <c r="D7" s="1">
         <v>41198.525000000001</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E7" s="1">
         <v>41199.025000000001</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
       <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
         <v>41198.525909143522</v>
       </c>
-      <c r="I7" s="1">
+      <c r="J7" s="1">
         <v>41198.525852974541</v>
       </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
       <c r="K7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>33</v>
       </c>
       <c r="B8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C8" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="1">
+      <c r="D8" s="1">
         <v>41347.305555555555</v>
       </c>
-      <c r="D8" s="1">
+      <c r="E8" s="1">
         <v>41347.583333333336</v>
       </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
       <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
         <v>41347.306463576388</v>
       </c>
-      <c r="I8" s="1">
+      <c r="J8" s="1">
         <v>41347.306083645832</v>
       </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
       <c r="K8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>35</v>
       </c>
       <c r="B9" t="s">
+        <v>158</v>
+      </c>
+      <c r="C9" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="1">
+      <c r="D9" s="1">
         <v>41200.29583333333</v>
       </c>
-      <c r="D9" s="1">
+      <c r="E9" s="1">
         <v>41200.645833333336</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
       <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I9" s="1">
         <v>41200.297747604163</v>
       </c>
-      <c r="I9" s="1">
+      <c r="J9" s="1">
         <v>41200.29765552083</v>
       </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
       <c r="K9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>36</v>
       </c>
       <c r="B10" t="s">
+        <v>158</v>
+      </c>
+      <c r="C10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="1">
+      <c r="D10" s="1">
         <v>41208.378472222219</v>
       </c>
-      <c r="D10" s="1">
+      <c r="E10" s="1">
         <v>41208.541666666664</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
       <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
         <v>41208.3785059375</v>
       </c>
-      <c r="I10" s="1">
+      <c r="J10" s="1">
         <v>41208.34485559028</v>
       </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
       <c r="K10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>38</v>
       </c>
       <c r="B11" t="s">
+        <v>158</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="1">
+      <c r="D11" s="1">
         <v>41207.321527777778</v>
       </c>
-      <c r="D11" s="1">
+      <c r="E11" s="1">
         <v>41209.363194444442</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
       <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="1">
+      <c r="I11" s="1">
         <v>41207.324837881948</v>
       </c>
-      <c r="I11" s="1">
+      <c r="J11" s="1">
         <v>41207.324980868056</v>
       </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
       <c r="K11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>40</v>
       </c>
       <c r="B12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C12" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="1">
+      <c r="D12" s="1">
         <v>41638.333333333336</v>
       </c>
-      <c r="D12" s="1">
+      <c r="E12" s="1">
         <v>41638.666666666664</v>
       </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
       <c r="F12">
         <v>1</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
         <v>27</v>
       </c>
-      <c r="H12" s="1">
+      <c r="I12" s="1">
         <v>41638.344441435183</v>
       </c>
-      <c r="I12" s="1">
+      <c r="J12" s="1">
         <v>41638.344160879627</v>
       </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
       <c r="K12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>42</v>
       </c>
       <c r="B13" t="s">
+        <v>158</v>
+      </c>
+      <c r="C13" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="1">
+      <c r="D13" s="1">
         <v>41486.291666666664</v>
       </c>
-      <c r="D13" s="1">
+      <c r="E13" s="1">
         <v>41486.5</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
       <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="H13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
         <v>41486.29172734954</v>
       </c>
-      <c r="I13" s="1">
+      <c r="J13" s="1">
         <v>41495.622366006945</v>
       </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
       <c r="K13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>43</v>
       </c>
       <c r="B14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C14" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="1">
+      <c r="D14" s="1">
         <v>41635.84375</v>
       </c>
-      <c r="D14" s="1">
+      <c r="E14" s="1">
         <v>41635.888888888891</v>
       </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
       <c r="F14">
         <v>1</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14" t="s">
         <v>30</v>
       </c>
-      <c r="H14" s="1">
+      <c r="I14" s="1">
         <v>41635.843810185186</v>
       </c>
-      <c r="I14" s="1">
+      <c r="J14" s="1">
         <v>41635.865452048609</v>
       </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
       <c r="K14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>44</v>
       </c>
       <c r="B15" t="s">
+        <v>158</v>
+      </c>
+      <c r="C15" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="1">
+      <c r="D15" s="1">
         <v>41278.347916666666</v>
       </c>
-      <c r="D15" s="1">
+      <c r="E15" s="1">
         <v>41278.479166666664</v>
       </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
       <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
         <v>41278.349120289349</v>
       </c>
-      <c r="I15" s="1">
+      <c r="J15" s="1">
         <v>41278.355992245371</v>
       </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
       <c r="K15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>48</v>
       </c>
       <c r="B16" t="s">
+        <v>160</v>
+      </c>
+      <c r="C16" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="1">
+      <c r="D16" s="1">
         <v>41316.708333333336</v>
       </c>
-      <c r="D16" s="1">
+      <c r="E16" s="1">
         <v>41317.708333333336</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
       <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16" t="s">
         <v>33</v>
       </c>
-      <c r="H16" s="1">
+      <c r="I16" s="1">
         <v>41316.734703587965</v>
       </c>
-      <c r="I16" s="1">
+      <c r="J16" s="1">
         <v>41316.734619641204</v>
       </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
       <c r="K16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>52</v>
       </c>
       <c r="B17" t="s">
+        <v>160</v>
+      </c>
+      <c r="C17" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="1">
+      <c r="D17" s="1">
         <v>41512.427777777775</v>
       </c>
-      <c r="D17" s="1">
+      <c r="E17" s="1">
         <v>41512.645833333336</v>
       </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
       <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17" t="s">
         <v>35</v>
       </c>
-      <c r="H17" s="1">
+      <c r="I17" s="1">
         <v>41512.427825081017</v>
       </c>
-      <c r="I17" s="1">
+      <c r="J17" s="1">
         <v>41583.554840590281</v>
       </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
       <c r="K17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>53</v>
       </c>
       <c r="B18" t="s">
+        <v>160</v>
+      </c>
+      <c r="C18" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="1">
+      <c r="D18" s="1">
         <v>41556.663194444445</v>
       </c>
-      <c r="D18" s="1">
+      <c r="E18" s="1">
         <v>41556.722222222219</v>
       </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
       <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="1">
+      <c r="I18" s="1">
         <v>41556.704923993057</v>
       </c>
-      <c r="I18" s="1">
+      <c r="J18" s="1">
         <v>41601.710531793979</v>
       </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
       <c r="K18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>54</v>
       </c>
       <c r="B19" t="s">
+        <v>158</v>
+      </c>
+      <c r="C19" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="1">
+      <c r="D19" s="1">
         <v>41585.291666666664</v>
       </c>
-      <c r="D19" s="1">
+      <c r="E19" s="1">
         <v>41585.646527777775</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
       <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="H19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
         <v>41585.439109178238</v>
       </c>
-      <c r="I19" s="1">
+      <c r="J19" s="1">
         <v>41596.703063310182</v>
       </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
       <c r="K19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>56</v>
       </c>
       <c r="B20" t="s">
+        <v>161</v>
+      </c>
+      <c r="C20" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="1">
+      <c r="D20" s="1">
         <v>41523.25</v>
       </c>
-      <c r="D20" s="1">
+      <c r="E20" s="1">
         <v>41523.665972222225</v>
       </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
       <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20" t="s">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20" t="s">
         <v>40</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>41</v>
       </c>
-      <c r="I20" s="1">
+      <c r="J20" s="1">
         <v>41523.256624652779</v>
       </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
       <c r="K20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>57</v>
       </c>
       <c r="B21" t="s">
+        <v>159</v>
+      </c>
+      <c r="C21" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="1">
+      <c r="D21" s="1">
         <v>41598.416666666664</v>
       </c>
-      <c r="D21" s="1">
+      <c r="E21" s="1">
         <v>41598.520833333336</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
       <c r="F21">
         <v>1</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21" t="s">
         <v>43</v>
       </c>
-      <c r="H21" s="1">
+      <c r="I21" s="1">
         <v>41598.430565625</v>
       </c>
-      <c r="I21" s="1">
+      <c r="J21" s="1">
         <v>41598.43042207176</v>
       </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
       <c r="K21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>58</v>
       </c>
       <c r="B22" t="s">
+        <v>158</v>
+      </c>
+      <c r="C22" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="1">
+      <c r="D22" s="1">
         <v>41603.583333333336</v>
       </c>
-      <c r="D22" s="1">
+      <c r="E22" s="1">
         <v>41603.708333333336</v>
       </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
       <c r="F22">
         <v>1</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22" t="s">
         <v>45</v>
       </c>
-      <c r="H22" s="1">
+      <c r="I22" s="1">
         <v>41603.607877199072</v>
       </c>
-      <c r="I22" s="1">
+      <c r="J22" s="1">
         <v>41603.607827893517</v>
       </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
       <c r="K22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>60</v>
       </c>
       <c r="B23" t="s">
+        <v>158</v>
+      </c>
+      <c r="C23" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="1">
+      <c r="D23" s="1">
         <v>41597.333333333336</v>
       </c>
-      <c r="D23" s="1">
+      <c r="E23" s="1">
         <v>41597.715277777781</v>
       </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
       <c r="F23">
         <v>1</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23" t="s">
         <v>47</v>
       </c>
-      <c r="H23" s="1">
+      <c r="I23" s="1">
         <v>41597.352942210651</v>
       </c>
-      <c r="I23" s="1">
+      <c r="J23" s="1">
         <v>41597.35285447917</v>
       </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
       <c r="K23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>61</v>
       </c>
       <c r="B24" t="s">
+        <v>159</v>
+      </c>
+      <c r="C24" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="1">
+      <c r="D24" s="1">
         <v>41573.229166666664</v>
       </c>
-      <c r="D24" s="1">
+      <c r="E24" s="1">
         <v>41573.8125</v>
       </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
       <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24" t="s">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24" t="s">
         <v>49</v>
       </c>
-      <c r="H24" s="1">
+      <c r="I24" s="1">
         <v>41573.232948113429</v>
       </c>
-      <c r="I24" s="1">
+      <c r="J24" s="1">
         <v>41583.689305868058</v>
       </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
       <c r="K24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>62</v>
       </c>
       <c r="B25" t="s">
+        <v>160</v>
+      </c>
+      <c r="C25" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="1">
+      <c r="D25" s="1">
         <v>41395.551388888889</v>
       </c>
-      <c r="D25" s="1">
+      <c r="E25" s="1">
         <v>41395.552083333336</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
       <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="H25" s="1">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1">
         <v>41395.551404895836</v>
       </c>
-      <c r="I25" s="1">
+      <c r="J25" s="1">
         <v>41395.555251620368</v>
       </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
       <c r="K25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>63</v>
       </c>
       <c r="B26" t="s">
+        <v>158</v>
+      </c>
+      <c r="C26" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="1">
+      <c r="D26" s="1">
         <v>41597.291666666664</v>
       </c>
-      <c r="D26" s="1">
+      <c r="E26" s="1">
         <v>41597.729166666664</v>
       </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
       <c r="F26">
         <v>1</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26" t="s">
         <v>52</v>
       </c>
-      <c r="H26" s="1">
+      <c r="I26" s="1">
         <v>41597.352496064814</v>
       </c>
-      <c r="I26" s="1">
+      <c r="J26" s="1">
         <v>41597.353416006947</v>
       </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
       <c r="K26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>64</v>
       </c>
       <c r="B27" t="s">
+        <v>158</v>
+      </c>
+      <c r="C27" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="1">
+      <c r="D27" s="1">
         <v>41585.291666666664</v>
       </c>
-      <c r="D27" s="1">
+      <c r="E27" s="1">
         <v>41585.729166666664</v>
       </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
       <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="H27" s="1">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="I27" s="1">
         <v>41585.352871840281</v>
       </c>
-      <c r="I27" s="1">
+      <c r="J27" s="1">
         <v>41585.672622916667</v>
       </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
       <c r="K27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>65</v>
       </c>
       <c r="B28" t="s">
+        <v>162</v>
+      </c>
+      <c r="C28" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="1">
+      <c r="D28" s="1">
         <v>41508.324305555558</v>
       </c>
-      <c r="D28" s="1">
+      <c r="E28" s="1">
         <v>41508.699305555558</v>
       </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
       <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28" t="s">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28" t="s">
         <v>55</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>41</v>
       </c>
-      <c r="I28" s="1">
+      <c r="J28" s="1">
         <v>41508.357546643521</v>
       </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
       <c r="K28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>66</v>
       </c>
       <c r="B29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C29" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="1">
+      <c r="D29" s="1">
         <v>41599.462500000001</v>
       </c>
-      <c r="D29" s="1">
+      <c r="E29" s="1">
         <v>41599.666666666664</v>
       </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
       <c r="F29">
         <v>1</v>
       </c>
-      <c r="H29" s="1">
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="I29" s="1">
         <v>41599.532148692131</v>
       </c>
-      <c r="I29" s="1">
+      <c r="J29" s="1">
         <v>41599.531948611111</v>
       </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
       <c r="K29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>67</v>
       </c>
       <c r="B30" t="s">
+        <v>162</v>
+      </c>
+      <c r="C30" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="1">
+      <c r="D30" s="1">
         <v>41628.324999999997</v>
       </c>
-      <c r="D30" s="1">
+      <c r="E30" s="1">
         <v>41628.750694444447</v>
       </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
       <c r="F30">
         <v>1</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30" t="s">
         <v>58</v>
       </c>
-      <c r="H30" s="1">
+      <c r="I30" s="1">
         <v>41628.594371030093</v>
       </c>
-      <c r="I30" s="1">
+      <c r="J30" s="1">
         <v>41628.594161724533</v>
       </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
       <c r="K30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>69</v>
       </c>
       <c r="B31" t="s">
+        <v>162</v>
+      </c>
+      <c r="C31" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="1">
+      <c r="D31" s="1">
         <v>41393.331944444442</v>
       </c>
-      <c r="D31" s="1">
+      <c r="E31" s="1">
         <v>41394.873611111114</v>
       </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
       <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31" t="s">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31" t="s">
         <v>60</v>
       </c>
-      <c r="H31" s="1">
+      <c r="I31" s="1">
         <v>41393.333922800928</v>
       </c>
-      <c r="I31" s="1">
+      <c r="J31" s="1">
         <v>41402.423431400464</v>
       </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
       <c r="K31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>70</v>
       </c>
       <c r="B32" t="s">
+        <v>159</v>
+      </c>
+      <c r="C32" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="1">
+      <c r="D32" s="1">
         <v>41641.569444444445</v>
       </c>
-      <c r="D32" s="1">
+      <c r="E32" s="1">
         <v>41647.708333333336</v>
       </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
       <c r="F32">
         <v>1</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32" t="s">
         <v>62</v>
       </c>
-      <c r="H32" s="1">
+      <c r="I32" s="1">
         <v>41641.573519710648</v>
       </c>
-      <c r="I32" s="1">
+      <c r="J32" s="1">
         <v>41641.573265856481</v>
       </c>
-      <c r="J32">
-        <v>1</v>
-      </c>
       <c r="K32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>71</v>
       </c>
       <c r="B33" t="s">
+        <v>159</v>
+      </c>
+      <c r="C33" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="1">
+      <c r="D33" s="1">
         <v>41641.569444444445</v>
       </c>
-      <c r="D33" s="1">
+      <c r="E33" s="1">
         <v>41647.708333333336</v>
       </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
       <c r="F33">
         <v>1</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33" t="s">
         <v>64</v>
       </c>
-      <c r="H33" s="1">
+      <c r="I33" s="1">
         <v>41641.573073530089</v>
       </c>
-      <c r="I33" s="1">
+      <c r="J33" s="1">
         <v>41641.572691469904</v>
       </c>
-      <c r="J33">
-        <v>1</v>
-      </c>
       <c r="K33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>72</v>
       </c>
       <c r="B34" t="s">
+        <v>159</v>
+      </c>
+      <c r="C34" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="1">
+      <c r="D34" s="1">
         <v>41568.46875</v>
       </c>
-      <c r="D34" s="1">
+      <c r="E34" s="1">
         <v>41568.708333333336</v>
       </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
       <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34" t="s">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34" t="s">
         <v>66</v>
       </c>
-      <c r="H34" s="1">
+      <c r="I34" s="1">
         <v>41568.468793749998</v>
       </c>
-      <c r="I34" s="1">
+      <c r="J34" s="1">
         <v>41583.655583067128</v>
       </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
       <c r="K34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>73</v>
       </c>
       <c r="B35" t="s">
+        <v>159</v>
+      </c>
+      <c r="C35" t="s">
         <v>67</v>
       </c>
-      <c r="C35" s="1">
+      <c r="D35" s="1">
         <v>41568.46875</v>
       </c>
-      <c r="D35" s="1">
+      <c r="E35" s="1">
         <v>41568.666666666664</v>
       </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
       <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35" t="s">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35" t="s">
         <v>68</v>
       </c>
-      <c r="H35" s="1">
+      <c r="I35" s="1">
         <v>41568.468793020831</v>
       </c>
-      <c r="I35" s="1">
+      <c r="J35" s="1">
         <v>41583.655379942131</v>
       </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
       <c r="K35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>74</v>
       </c>
       <c r="B36" t="s">
+        <v>159</v>
+      </c>
+      <c r="C36" t="s">
         <v>69</v>
       </c>
-      <c r="C36" s="1">
+      <c r="D36" s="1">
         <v>41568.468055555553</v>
       </c>
-      <c r="D36" s="1">
+      <c r="E36" s="1">
         <v>41568.708333333336</v>
       </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
       <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36" t="s">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36" t="s">
         <v>70</v>
       </c>
-      <c r="H36" s="1">
+      <c r="I36" s="1">
         <v>41568.468091898147</v>
       </c>
-      <c r="I36" s="1">
+      <c r="J36" s="1">
         <v>41583.655132025466</v>
       </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
       <c r="K36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>75</v>
       </c>
       <c r="B37" t="s">
+        <v>159</v>
+      </c>
+      <c r="C37" t="s">
         <v>71</v>
       </c>
-      <c r="C37" s="1">
+      <c r="D37" s="1">
         <v>41568.46875</v>
       </c>
-      <c r="D37" s="1">
+      <c r="E37" s="1">
         <v>41568.708333333336</v>
       </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
       <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37" t="s">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37" t="s">
         <v>72</v>
       </c>
-      <c r="H37" s="1">
+      <c r="I37" s="1">
         <v>41568.468793206019</v>
       </c>
-      <c r="I37" s="1">
+      <c r="J37" s="1">
         <v>41583.654940277775</v>
       </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
       <c r="K37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>76</v>
       </c>
       <c r="B38" t="s">
+        <v>159</v>
+      </c>
+      <c r="C38" t="s">
         <v>73</v>
       </c>
-      <c r="C38" s="1">
+      <c r="D38" s="1">
         <v>41577.460416666669</v>
       </c>
-      <c r="D38" s="1">
+      <c r="E38" s="1">
         <v>41577.677083333336</v>
       </c>
-      <c r="E38">
-        <v>1</v>
-      </c>
       <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="G38" t="s">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38" t="s">
         <v>74</v>
       </c>
-      <c r="H38" s="1">
+      <c r="I38" s="1">
         <v>41577.460479016205</v>
       </c>
-      <c r="I38" s="1">
+      <c r="J38" s="1">
         <v>41583.654726307868</v>
       </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
       <c r="K38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>77</v>
       </c>
       <c r="B39" t="s">
+        <v>159</v>
+      </c>
+      <c r="C39" t="s">
         <v>75</v>
       </c>
-      <c r="C39" s="1">
+      <c r="D39" s="1">
         <v>41585.416666666664</v>
       </c>
-      <c r="D39" s="1">
+      <c r="E39" s="1">
         <v>41585.708333333336</v>
       </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
       <c r="F39">
-        <v>0</v>
-      </c>
-      <c r="G39" t="s">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39" t="s">
         <v>74</v>
       </c>
-      <c r="H39" s="1">
+      <c r="I39" s="1">
         <v>41585.4371334838</v>
       </c>
-      <c r="I39" s="1">
+      <c r="J39" s="1">
         <v>41585.67294232639</v>
       </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
       <c r="K39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>78</v>
       </c>
       <c r="B40" t="s">
+        <v>159</v>
+      </c>
+      <c r="C40" t="s">
         <v>76</v>
       </c>
-      <c r="C40" s="1">
+      <c r="D40" s="1">
         <v>41505.510416666664</v>
       </c>
-      <c r="D40" s="1">
+      <c r="E40" s="1">
         <v>41505.666666666664</v>
       </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
       <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="H40" s="1">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="I40" s="1">
         <v>41505.523519479168</v>
       </c>
-      <c r="I40" s="1">
+      <c r="J40" s="1">
         <v>41505.523187418985</v>
       </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
       <c r="K40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>79</v>
       </c>
       <c r="B41" t="s">
+        <v>159</v>
+      </c>
+      <c r="C41" t="s">
         <v>77</v>
       </c>
-      <c r="C41" s="1">
+      <c r="D41" s="1">
         <v>41432.541666666664</v>
       </c>
-      <c r="D41" s="1">
+      <c r="E41" s="1">
         <v>41432.555555555555</v>
       </c>
-      <c r="E41">
-        <v>1</v>
-      </c>
       <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="H41" s="1">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="I41" s="1">
         <v>41432.545761956018</v>
       </c>
-      <c r="I41" s="1">
+      <c r="J41" s="1">
         <v>41432.585386226849</v>
       </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
       <c r="K41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>80</v>
       </c>
       <c r="B42" t="s">
+        <v>159</v>
+      </c>
+      <c r="C42" t="s">
         <v>78</v>
       </c>
-      <c r="C42" s="1">
+      <c r="D42" s="1">
         <v>41409.291666666664</v>
       </c>
-      <c r="D42" s="1">
+      <c r="E42" s="1">
         <v>41409.686805555553</v>
       </c>
-      <c r="E42">
-        <v>1</v>
-      </c>
       <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="H42" t="s">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="I42" t="s">
         <v>41</v>
       </c>
-      <c r="I42" s="1">
+      <c r="J42" s="1">
         <v>41564.351995173609</v>
       </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
       <c r="K42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>81</v>
       </c>
       <c r="B43" t="s">
+        <v>159</v>
+      </c>
+      <c r="C43" t="s">
         <v>79</v>
       </c>
-      <c r="C43" s="1">
+      <c r="D43" s="1">
         <v>41514.340277777781</v>
       </c>
-      <c r="D43" s="1">
+      <c r="E43" s="1">
         <v>41514.76666666667</v>
       </c>
-      <c r="E43">
-        <v>1</v>
-      </c>
       <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="G43" t="s">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43" t="s">
         <v>80</v>
       </c>
-      <c r="H43" t="s">
+      <c r="I43" t="s">
         <v>41</v>
       </c>
-      <c r="I43" s="1">
+      <c r="J43" s="1">
         <v>41514.339264432871</v>
       </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
       <c r="K43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>83</v>
       </c>
       <c r="B44" t="s">
+        <v>163</v>
+      </c>
+      <c r="C44" t="s">
         <v>81</v>
       </c>
-      <c r="C44" s="1">
+      <c r="D44" s="1">
         <v>41415.419444444444</v>
       </c>
-      <c r="D44" s="1">
+      <c r="E44" s="1">
         <v>41415.75277777778</v>
       </c>
-      <c r="E44">
-        <v>1</v>
-      </c>
       <c r="F44">
-        <v>0</v>
-      </c>
-      <c r="G44" t="s">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44" t="s">
         <v>82</v>
       </c>
-      <c r="H44" s="1">
+      <c r="I44" s="1">
         <v>41415.420256516205</v>
       </c>
-      <c r="I44" s="1">
+      <c r="J44" s="1">
         <v>41415.728437418984</v>
       </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
       <c r="K44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>84</v>
       </c>
       <c r="B45" t="s">
+        <v>163</v>
+      </c>
+      <c r="C45" t="s">
         <v>83</v>
       </c>
-      <c r="C45" s="1">
+      <c r="D45" s="1">
         <v>41416.875</v>
       </c>
-      <c r="D45" s="1">
+      <c r="E45" s="1">
         <v>41417.208333333336</v>
       </c>
-      <c r="E45">
-        <v>1</v>
-      </c>
       <c r="F45">
-        <v>0</v>
-      </c>
-      <c r="H45" s="1">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="I45" s="1">
         <v>41416.875002546294</v>
       </c>
-      <c r="I45" s="1">
+      <c r="J45" s="1">
         <v>41416.582455324075</v>
       </c>
-      <c r="J45">
-        <v>0</v>
-      </c>
       <c r="K45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>85</v>
       </c>
       <c r="B46" t="s">
+        <v>161</v>
+      </c>
+      <c r="C46" t="s">
         <v>84</v>
       </c>
-      <c r="C46" s="1">
+      <c r="D46" s="1">
         <v>41628.625</v>
       </c>
-      <c r="D46" s="1">
+      <c r="E46" s="1">
         <v>41628.75</v>
       </c>
-      <c r="E46">
-        <v>1</v>
-      </c>
       <c r="F46">
         <v>1</v>
       </c>
-      <c r="H46" s="1">
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="I46" s="1">
         <v>41628.671685150461</v>
       </c>
-      <c r="I46" s="1">
+      <c r="J46" s="1">
         <v>41628.671607870368</v>
       </c>
-      <c r="J46">
-        <v>0</v>
-      </c>
       <c r="K46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>86</v>
       </c>
       <c r="B47" t="s">
+        <v>159</v>
+      </c>
+      <c r="C47" t="s">
         <v>85</v>
       </c>
-      <c r="C47" s="1">
+      <c r="D47" s="1">
         <v>41423.61041666667</v>
       </c>
-      <c r="D47" s="1">
+      <c r="E47" s="1">
         <v>41424.027083333334</v>
       </c>
-      <c r="E47">
-        <v>1</v>
-      </c>
       <c r="F47">
-        <v>0</v>
-      </c>
-      <c r="H47" s="1">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="I47" s="1">
         <v>41423.611045983795</v>
       </c>
-      <c r="I47" s="1">
+      <c r="J47" s="1">
         <v>41423.610921562497</v>
       </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
       <c r="K47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>88</v>
       </c>
       <c r="B48" t="s">
+        <v>161</v>
+      </c>
+      <c r="C48" t="s">
         <v>86</v>
       </c>
-      <c r="C48" s="1">
+      <c r="D48" s="1">
         <v>41458.25</v>
       </c>
-      <c r="D48" s="1">
+      <c r="E48" s="1">
         <v>41458.75</v>
       </c>
-      <c r="E48">
-        <v>1</v>
-      </c>
       <c r="F48">
-        <v>0</v>
-      </c>
-      <c r="H48" s="1">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="I48" s="1">
         <v>41458.290760104166</v>
       </c>
-      <c r="I48" s="1">
+      <c r="J48" s="1">
         <v>41458.290575775463</v>
       </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
       <c r="K48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>89</v>
       </c>
       <c r="B49" t="s">
+        <v>161</v>
+      </c>
+      <c r="C49" t="s">
         <v>87</v>
       </c>
-      <c r="C49" s="1">
+      <c r="D49" s="1">
         <v>41564.166666666664</v>
       </c>
-      <c r="D49" s="1">
+      <c r="E49" s="1">
         <v>41564.5625</v>
       </c>
-      <c r="E49">
-        <v>1</v>
-      </c>
       <c r="F49">
-        <v>0</v>
-      </c>
-      <c r="H49" s="1">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="I49" s="1">
         <v>41564.166689120371</v>
       </c>
-      <c r="I49" s="1">
+      <c r="J49" s="1">
         <v>41564.608705057872</v>
       </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
       <c r="K49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>90</v>
       </c>
       <c r="B50" t="s">
+        <v>161</v>
+      </c>
+      <c r="C50" t="s">
         <v>88</v>
       </c>
-      <c r="C50" s="1">
+      <c r="D50" s="1">
         <v>41577.666666666664</v>
       </c>
-      <c r="D50" s="1">
+      <c r="E50" s="1">
         <v>41577.770833333336</v>
       </c>
-      <c r="E50">
-        <v>1</v>
-      </c>
       <c r="F50">
         <v>1</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="H50" t="s">
         <v>89</v>
       </c>
-      <c r="H50" s="1">
+      <c r="I50" s="1">
         <v>41577.686631712961</v>
       </c>
-      <c r="I50" s="1">
+      <c r="J50" s="1">
         <v>41577.686915891201</v>
       </c>
-      <c r="J50">
-        <v>0</v>
-      </c>
       <c r="K50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>92</v>
       </c>
       <c r="B51" t="s">
+        <v>161</v>
+      </c>
+      <c r="C51" t="s">
         <v>90</v>
       </c>
-      <c r="C51" s="1">
+      <c r="D51" s="1">
         <v>41447.298611111109</v>
       </c>
-      <c r="D51" s="1">
+      <c r="E51" s="1">
         <v>41447.381944444445</v>
       </c>
-      <c r="E51">
-        <v>1</v>
-      </c>
       <c r="F51">
-        <v>0</v>
-      </c>
-      <c r="H51" s="1">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="I51" s="1">
         <v>41447.301801886577</v>
       </c>
-      <c r="I51" s="1">
+      <c r="J51" s="1">
         <v>41447.301473263891</v>
       </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
       <c r="K51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>93</v>
       </c>
       <c r="B52" t="s">
+        <v>164</v>
+      </c>
+      <c r="C52" t="s">
         <v>91</v>
       </c>
-      <c r="C52" s="1">
+      <c r="D52" s="1">
         <v>41447.757638888892</v>
       </c>
-      <c r="D52" s="1">
+      <c r="E52" s="1">
         <v>41449.299305555556</v>
       </c>
-      <c r="E52">
-        <v>1</v>
-      </c>
       <c r="F52">
-        <v>0</v>
-      </c>
-      <c r="G52" t="s">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52" t="s">
         <v>92</v>
       </c>
-      <c r="H52" s="1">
+      <c r="I52" s="1">
         <v>41447.800266122686</v>
       </c>
-      <c r="I52" s="1">
+      <c r="J52" s="1">
         <v>41447.800102349538</v>
       </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
       <c r="K52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>94</v>
       </c>
       <c r="B53" t="s">
+        <v>161</v>
+      </c>
+      <c r="C53" t="s">
         <v>93</v>
       </c>
-      <c r="C53" s="1">
+      <c r="D53" s="1">
         <v>41548.673611111109</v>
       </c>
-      <c r="D53" s="1">
+      <c r="E53" s="1">
         <v>41551.788888888892</v>
       </c>
-      <c r="E53">
-        <v>1</v>
-      </c>
       <c r="F53">
         <v>1</v>
       </c>
-      <c r="H53" s="1">
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="I53" s="1">
         <v>41548.676384108796</v>
       </c>
-      <c r="I53" s="1">
+      <c r="J53" s="1">
         <v>41548.676332442126</v>
       </c>
-      <c r="J53">
-        <v>0</v>
-      </c>
       <c r="K53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>95</v>
       </c>
       <c r="B54" t="s">
+        <v>161</v>
+      </c>
+      <c r="C54" t="s">
         <v>94</v>
       </c>
-      <c r="C54" s="1">
+      <c r="D54" s="1">
         <v>41543.333333333336</v>
       </c>
-      <c r="D54" s="1">
+      <c r="E54" s="1">
         <v>41543.708333333336</v>
       </c>
-      <c r="E54">
-        <v>1</v>
-      </c>
       <c r="F54">
         <v>1</v>
       </c>
-      <c r="H54" s="1">
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="I54" s="1">
         <v>41543.389526886574</v>
       </c>
-      <c r="I54" s="1">
+      <c r="J54" s="1">
         <v>41543.389518402779</v>
       </c>
-      <c r="J54">
-        <v>0</v>
-      </c>
       <c r="K54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>96</v>
       </c>
       <c r="B55" t="s">
+        <v>161</v>
+      </c>
+      <c r="C55" t="s">
         <v>95</v>
       </c>
-      <c r="C55" s="1">
+      <c r="D55" s="1">
         <v>41457.27847222222</v>
       </c>
-      <c r="D55" s="1">
+      <c r="E55" s="1">
         <v>41458.736805555556</v>
       </c>
-      <c r="E55">
-        <v>1</v>
-      </c>
       <c r="F55">
-        <v>0</v>
-      </c>
-      <c r="H55" s="1">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="I55" s="1">
         <v>41457.280323761574</v>
       </c>
-      <c r="I55" s="1">
+      <c r="J55" s="1">
         <v>41457.279958483799</v>
       </c>
-      <c r="J55">
-        <v>0</v>
-      </c>
       <c r="K55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>97</v>
       </c>
       <c r="B56" t="s">
+        <v>161</v>
+      </c>
+      <c r="C56" t="s">
         <v>96</v>
       </c>
-      <c r="C56" s="1">
+      <c r="D56" s="1">
         <v>41475.32916666667</v>
       </c>
-      <c r="D56" s="1">
+      <c r="E56" s="1">
         <v>41475.666666666664</v>
       </c>
-      <c r="E56">
-        <v>1</v>
-      </c>
       <c r="F56">
-        <v>0</v>
-      </c>
-      <c r="H56" s="1">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="I56" s="1">
         <v>41475.451466006947</v>
       </c>
-      <c r="I56" s="1">
+      <c r="J56" s="1">
         <v>41475.451595833336</v>
       </c>
-      <c r="J56">
-        <v>0</v>
-      </c>
       <c r="K56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>98</v>
       </c>
       <c r="B57" t="s">
+        <v>165</v>
+      </c>
+      <c r="C57" t="s">
         <v>97</v>
       </c>
-      <c r="C57" s="1">
+      <c r="D57" s="1">
         <v>41470.31527777778</v>
       </c>
-      <c r="D57" s="1">
+      <c r="E57" s="1">
         <v>41486.356944444444</v>
       </c>
-      <c r="E57">
-        <v>1</v>
-      </c>
       <c r="F57">
-        <v>0</v>
-      </c>
-      <c r="G57" t="s">
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57" t="s">
         <v>98</v>
       </c>
-      <c r="H57" s="1">
+      <c r="I57" s="1">
         <v>41470.316257754632</v>
       </c>
-      <c r="I57" s="1">
+      <c r="J57" s="1">
         <v>41470.491879895832</v>
       </c>
-      <c r="J57">
-        <v>0</v>
-      </c>
       <c r="K57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>99</v>
       </c>
       <c r="B58" t="s">
+        <v>161</v>
+      </c>
+      <c r="C58" t="s">
         <v>99</v>
       </c>
-      <c r="C58" s="1">
+      <c r="D58" s="1">
         <v>41516.541666666664</v>
       </c>
-      <c r="D58" s="1">
+      <c r="E58" s="1">
         <v>41516.666666666664</v>
       </c>
-      <c r="E58">
-        <v>1</v>
-      </c>
       <c r="F58">
-        <v>0</v>
-      </c>
-      <c r="G58" t="s">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58" t="s">
         <v>100</v>
       </c>
-      <c r="H58" s="1">
+      <c r="I58" s="1">
         <v>41516.582671180557</v>
       </c>
-      <c r="I58" s="1">
+      <c r="J58" s="1">
         <v>41516.582481400466</v>
       </c>
-      <c r="J58">
-        <v>0</v>
-      </c>
       <c r="K58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>101</v>
       </c>
       <c r="B59" t="s">
+        <v>163</v>
+      </c>
+      <c r="C59" t="s">
         <v>101</v>
       </c>
-      <c r="C59" s="1">
+      <c r="D59" s="1">
         <v>41492.333333333336</v>
       </c>
-      <c r="D59" s="1">
+      <c r="E59" s="1">
         <v>41494.75</v>
       </c>
-      <c r="E59">
+      <c r="F59">
         <v>2</v>
       </c>
-      <c r="F59">
-        <v>0</v>
-      </c>
-      <c r="H59" s="1">
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="I59" s="1">
         <v>41494.333361655095</v>
       </c>
-      <c r="I59" s="1">
+      <c r="J59" s="1">
         <v>41492.573343206015</v>
       </c>
-      <c r="J59">
-        <v>0</v>
-      </c>
       <c r="K59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>102</v>
       </c>
       <c r="B60" t="s">
+        <v>161</v>
+      </c>
+      <c r="C60" t="s">
         <v>102</v>
       </c>
-      <c r="C60" s="1">
+      <c r="D60" s="1">
         <v>41564.583333333336</v>
       </c>
-      <c r="D60" s="1">
+      <c r="E60" s="1">
         <v>41564.833333333336</v>
       </c>
-      <c r="E60">
-        <v>1</v>
-      </c>
       <c r="F60">
-        <v>0</v>
-      </c>
-      <c r="H60" s="1">
+        <v>1</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="I60" s="1">
         <v>41564.605647800927</v>
       </c>
-      <c r="I60" s="1">
+      <c r="J60" s="1">
         <v>41564.792738391203</v>
       </c>
-      <c r="J60">
-        <v>0</v>
-      </c>
       <c r="K60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>103</v>
       </c>
       <c r="B61" t="s">
+        <v>160</v>
+      </c>
+      <c r="C61" t="s">
         <v>103</v>
       </c>
-      <c r="C61" s="1">
+      <c r="D61" s="1">
         <v>41566.336805555555</v>
       </c>
-      <c r="D61" s="1">
+      <c r="E61" s="1">
         <v>41566.666666666664</v>
       </c>
-      <c r="E61">
-        <v>1</v>
-      </c>
       <c r="F61">
         <v>1</v>
       </c>
-      <c r="G61" t="s">
+      <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="H61" t="s">
         <v>104</v>
       </c>
-      <c r="H61" s="1">
+      <c r="I61" s="1">
         <v>41566.336822766207</v>
       </c>
-      <c r="I61" s="1">
+      <c r="J61" s="1">
         <v>41566.336091666664</v>
       </c>
-      <c r="J61">
-        <v>0</v>
-      </c>
       <c r="K61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>104</v>
       </c>
       <c r="B62" t="s">
+        <v>161</v>
+      </c>
+      <c r="C62" t="s">
         <v>105</v>
       </c>
-      <c r="C62" s="1">
+      <c r="D62" s="1">
         <v>41506.306250000001</v>
       </c>
-      <c r="D62" s="1">
+      <c r="E62" s="1">
         <v>41507.347916666666</v>
       </c>
-      <c r="E62">
-        <v>1</v>
-      </c>
       <c r="F62">
-        <v>0</v>
-      </c>
-      <c r="G62" t="s">
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62" t="s">
         <v>106</v>
       </c>
-      <c r="H62" s="1">
+      <c r="I62" s="1">
         <v>41506.307669444446</v>
       </c>
-      <c r="I62" s="1">
+      <c r="J62" s="1">
         <v>41507.598905439816</v>
       </c>
-      <c r="J62">
-        <v>0</v>
-      </c>
       <c r="K62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>105</v>
       </c>
       <c r="B63" t="s">
+        <v>161</v>
+      </c>
+      <c r="C63" t="s">
         <v>107</v>
       </c>
-      <c r="C63" s="1">
+      <c r="D63" s="1">
         <v>41564.166666666664</v>
       </c>
-      <c r="D63" s="1">
+      <c r="E63" s="1">
         <v>41564.604166666664</v>
       </c>
-      <c r="E63">
-        <v>1</v>
-      </c>
       <c r="F63">
-        <v>0</v>
-      </c>
-      <c r="H63" s="1">
+        <v>1</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="I63" s="1">
         <v>41564.166690590275</v>
       </c>
-      <c r="I63" s="1">
+      <c r="J63" s="1">
         <v>41564.641149768519</v>
       </c>
-      <c r="J63">
-        <v>0</v>
-      </c>
       <c r="K63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>107</v>
       </c>
       <c r="B64" t="s">
+        <v>161</v>
+      </c>
+      <c r="C64" t="s">
         <v>108</v>
       </c>
-      <c r="C64" s="1">
+      <c r="D64" s="1">
         <v>41564.583333333336</v>
       </c>
-      <c r="D64" s="1">
+      <c r="E64" s="1">
         <v>41564.833333333336</v>
       </c>
-      <c r="E64">
-        <v>1</v>
-      </c>
       <c r="F64">
-        <v>0</v>
-      </c>
-      <c r="H64" s="1">
+        <v>1</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="I64" s="1">
         <v>41564.609282291669</v>
       </c>
-      <c r="I64" s="1">
+      <c r="J64" s="1">
         <v>41564.793220486114</v>
       </c>
-      <c r="J64">
-        <v>0</v>
-      </c>
       <c r="K64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>108</v>
       </c>
       <c r="B65" t="s">
+        <v>161</v>
+      </c>
+      <c r="C65" t="s">
         <v>109</v>
       </c>
-      <c r="C65" s="1">
+      <c r="D65" s="1">
         <v>41516.588194444441</v>
       </c>
-      <c r="D65" s="1">
+      <c r="E65" s="1">
         <v>41522.963194444441</v>
       </c>
-      <c r="E65">
-        <v>1</v>
-      </c>
       <c r="F65">
-        <v>0</v>
-      </c>
-      <c r="H65" s="1">
+        <v>1</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="I65" s="1">
         <v>41516.630922256947</v>
       </c>
-      <c r="I65" s="1">
+      <c r="J65" s="1">
         <v>41522.420396296293</v>
       </c>
-      <c r="J65">
-        <v>0</v>
-      </c>
       <c r="K65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>109</v>
       </c>
       <c r="B66" t="s">
+        <v>161</v>
+      </c>
+      <c r="C66" t="s">
         <v>110</v>
       </c>
-      <c r="C66" s="1">
+      <c r="D66" s="1">
         <v>41600.416666666664</v>
       </c>
-      <c r="D66" s="1">
+      <c r="E66" s="1">
         <v>41600.8125</v>
       </c>
-      <c r="E66">
-        <v>1</v>
-      </c>
       <c r="F66">
         <v>1</v>
       </c>
-      <c r="H66" s="1">
+      <c r="G66">
+        <v>1</v>
+      </c>
+      <c r="I66" s="1">
         <v>41600.603064699077</v>
       </c>
-      <c r="I66" s="1">
+      <c r="J66" s="1">
         <v>41600.603036192129</v>
       </c>
-      <c r="J66">
-        <v>0</v>
-      </c>
       <c r="K66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>110</v>
       </c>
       <c r="B67" t="s">
+        <v>163</v>
+      </c>
+      <c r="C67" t="s">
         <v>111</v>
       </c>
-      <c r="C67" s="1">
+      <c r="D67" s="1">
         <v>41563.388888888891</v>
       </c>
-      <c r="D67" s="1">
+      <c r="E67" s="1">
         <v>41563.5</v>
       </c>
-      <c r="E67">
-        <v>1</v>
-      </c>
       <c r="F67">
         <v>1</v>
       </c>
-      <c r="H67" s="1">
+      <c r="G67">
+        <v>1</v>
+      </c>
+      <c r="I67" s="1">
         <v>41563.391130636577</v>
       </c>
-      <c r="I67" s="1">
+      <c r="J67" s="1">
         <v>41563.435877858799</v>
       </c>
-      <c r="J67">
-        <v>0</v>
-      </c>
       <c r="K67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>111</v>
       </c>
       <c r="B68" t="s">
+        <v>161</v>
+      </c>
+      <c r="C68" t="s">
         <v>112</v>
       </c>
-      <c r="C68" s="1">
+      <c r="D68" s="1">
         <v>41564.166666666664</v>
       </c>
-      <c r="D68" s="1">
+      <c r="E68" s="1">
         <v>41564.625</v>
       </c>
-      <c r="E68">
-        <v>1</v>
-      </c>
       <c r="F68">
-        <v>0</v>
-      </c>
-      <c r="G68" t="s">
+        <v>1</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68" t="s">
         <v>113</v>
       </c>
-      <c r="H68" s="1">
+      <c r="I68" s="1">
         <v>41564.166692395833</v>
       </c>
-      <c r="I68" s="1">
+      <c r="J68" s="1">
         <v>41564.644126006948</v>
       </c>
-      <c r="J68">
-        <v>0</v>
-      </c>
       <c r="K68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>113</v>
       </c>
       <c r="B69" t="s">
+        <v>161</v>
+      </c>
+      <c r="C69" t="s">
         <v>114</v>
       </c>
-      <c r="C69" s="1">
+      <c r="D69" s="1">
         <v>41564.583333333336</v>
       </c>
-      <c r="D69" s="1">
+      <c r="E69" s="1">
         <v>41564.833333333336</v>
       </c>
-      <c r="E69">
-        <v>1</v>
-      </c>
       <c r="F69">
-        <v>0</v>
-      </c>
-      <c r="H69" s="1">
+        <v>1</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="I69" s="1">
         <v>41564.606865162037</v>
       </c>
-      <c r="I69" s="1">
+      <c r="J69" s="1">
         <v>41564.79354366898</v>
       </c>
-      <c r="J69">
-        <v>0</v>
-      </c>
       <c r="K69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>118</v>
       </c>
       <c r="B70" t="s">
+        <v>163</v>
+      </c>
+      <c r="C70" t="s">
         <v>115</v>
       </c>
-      <c r="C70" s="1">
+      <c r="D70" s="1">
         <v>41547.504861111112</v>
       </c>
-      <c r="D70" s="1">
+      <c r="E70" s="1">
         <v>41547.921527777777</v>
       </c>
-      <c r="E70">
-        <v>1</v>
-      </c>
       <c r="F70">
         <v>1</v>
       </c>
-      <c r="H70" s="1">
+      <c r="G70">
+        <v>1</v>
+      </c>
+      <c r="I70" s="1">
         <v>41547.50539421296</v>
       </c>
-      <c r="I70" s="1">
+      <c r="J70" s="1">
         <v>41547.642503009258</v>
       </c>
-      <c r="J70">
-        <v>0</v>
-      </c>
       <c r="K70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>119</v>
       </c>
       <c r="B71" t="s">
+        <v>161</v>
+      </c>
+      <c r="C71" t="s">
         <v>116</v>
       </c>
-      <c r="C71" s="1">
+      <c r="D71" s="1">
         <v>41551.254166666666</v>
       </c>
-      <c r="D71" s="1">
+      <c r="E71" s="1">
         <v>41552.879166666666</v>
       </c>
-      <c r="E71">
-        <v>1</v>
-      </c>
       <c r="F71">
         <v>1</v>
       </c>
-      <c r="H71" s="1">
+      <c r="G71">
+        <v>1</v>
+      </c>
+      <c r="I71" s="1">
         <v>41551.282428553241</v>
       </c>
-      <c r="I71" s="1">
+      <c r="J71" s="1">
         <v>41551.684775000002</v>
       </c>
-      <c r="J71">
-        <v>0</v>
-      </c>
       <c r="K71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>120</v>
       </c>
       <c r="B72" t="s">
+        <v>163</v>
+      </c>
+      <c r="C72" t="s">
         <v>117</v>
       </c>
-      <c r="C72" s="1">
+      <c r="D72" s="1">
         <v>41554.364583333336</v>
       </c>
-      <c r="D72" s="1">
+      <c r="E72" s="1">
         <v>41554.5</v>
       </c>
-      <c r="E72">
-        <v>1</v>
-      </c>
       <c r="F72">
         <v>1</v>
       </c>
-      <c r="H72" s="1">
+      <c r="G72">
+        <v>1</v>
+      </c>
+      <c r="I72" s="1">
         <v>41554.364593090279</v>
       </c>
-      <c r="I72" s="1">
+      <c r="J72" s="1">
         <v>41554.352776851854</v>
       </c>
-      <c r="J72">
-        <v>0</v>
-      </c>
       <c r="K72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>121</v>
       </c>
       <c r="B73" t="s">
+        <v>161</v>
+      </c>
+      <c r="C73" t="s">
         <v>118</v>
       </c>
-      <c r="C73" s="1">
+      <c r="D73" s="1">
         <v>41557.276388888888</v>
       </c>
-      <c r="D73" s="1">
+      <c r="E73" s="1">
         <v>41557.818055555559</v>
       </c>
-      <c r="E73">
-        <v>1</v>
-      </c>
       <c r="F73">
         <v>1</v>
       </c>
-      <c r="H73" s="1">
+      <c r="G73">
+        <v>1</v>
+      </c>
+      <c r="I73" s="1">
         <v>41557.290048263887</v>
       </c>
-      <c r="I73" s="1">
+      <c r="J73" s="1">
         <v>41557.29004753472</v>
       </c>
-      <c r="J73">
-        <v>0</v>
-      </c>
       <c r="K73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>123</v>
       </c>
       <c r="B74" t="s">
+        <v>161</v>
+      </c>
+      <c r="C74" t="s">
         <v>119</v>
       </c>
-      <c r="C74" s="1">
+      <c r="D74" s="1">
         <v>41583.291666666664</v>
       </c>
-      <c r="D74" s="1">
+      <c r="E74" s="1">
         <v>41585.875</v>
       </c>
-      <c r="E74">
-        <v>1</v>
-      </c>
       <c r="F74">
         <v>1</v>
       </c>
-      <c r="H74" s="1">
+      <c r="G74">
+        <v>1</v>
+      </c>
+      <c r="I74" s="1">
         <v>41583.30026866898</v>
       </c>
-      <c r="I74" s="1">
+      <c r="J74" s="1">
         <v>41584.707696412035</v>
       </c>
-      <c r="J74">
-        <v>0</v>
-      </c>
       <c r="K74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>124</v>
       </c>
       <c r="B75" t="s">
+        <v>164</v>
+      </c>
+      <c r="C75" t="s">
         <v>120</v>
       </c>
-      <c r="C75" s="1">
+      <c r="D75" s="1">
         <v>41625.3125</v>
       </c>
-      <c r="D75" s="1">
+      <c r="E75" s="1">
         <v>41625.791666666664</v>
       </c>
-      <c r="E75">
-        <v>1</v>
-      </c>
       <c r="F75">
         <v>1</v>
       </c>
-      <c r="G75" t="s">
+      <c r="G75">
+        <v>1</v>
+      </c>
+      <c r="H75" t="s">
         <v>121</v>
       </c>
-      <c r="H75" s="1">
+      <c r="I75" s="1">
         <v>41625.330353321762</v>
       </c>
-      <c r="I75" s="1">
+      <c r="J75" s="1">
         <v>41625.33029140046</v>
       </c>
-      <c r="J75">
-        <v>0</v>
-      </c>
       <c r="K75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>125</v>
       </c>
       <c r="B76" t="s">
+        <v>164</v>
+      </c>
+      <c r="C76" t="s">
         <v>122</v>
       </c>
-      <c r="C76" s="1">
+      <c r="D76" s="1">
         <v>41592.166666666664</v>
       </c>
-      <c r="D76" s="1">
+      <c r="E76" s="1">
         <v>41592.333333333336</v>
       </c>
-      <c r="E76">
-        <v>1</v>
-      </c>
       <c r="F76">
         <v>1</v>
       </c>
-      <c r="H76" s="1">
+      <c r="G76">
+        <v>1</v>
+      </c>
+      <c r="I76" s="1">
         <v>41592.209561145835</v>
       </c>
-      <c r="I76" s="1">
+      <c r="J76" s="1">
         <v>41592.209236886571</v>
       </c>
-      <c r="J76">
-        <v>0</v>
-      </c>
       <c r="K76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>126</v>
       </c>
       <c r="B77" t="s">
+        <v>163</v>
+      </c>
+      <c r="C77" t="s">
         <v>123</v>
       </c>
-      <c r="C77" s="1">
+      <c r="D77" s="1">
         <v>41577.645833333336</v>
       </c>
-      <c r="D77" s="1">
+      <c r="E77" s="1">
         <v>41578.791666666664</v>
       </c>
-      <c r="E77">
-        <v>1</v>
-      </c>
       <c r="F77">
         <v>1</v>
       </c>
-      <c r="H77" s="1">
+      <c r="G77">
+        <v>1</v>
+      </c>
+      <c r="I77" s="1">
         <v>41577.654387465278</v>
       </c>
-      <c r="I77" s="1">
+      <c r="J77" s="1">
         <v>41577.654246608799</v>
       </c>
-      <c r="J77">
-        <v>0</v>
-      </c>
       <c r="K77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>127</v>
       </c>
       <c r="B78" t="s">
+        <v>164</v>
+      </c>
+      <c r="C78" t="s">
         <v>124</v>
       </c>
-      <c r="C78" s="1">
+      <c r="D78" s="1">
         <v>41582.519444444442</v>
       </c>
-      <c r="D78" s="1">
+      <c r="E78" s="1">
         <v>41583.708333333336</v>
       </c>
-      <c r="E78">
-        <v>1</v>
-      </c>
       <c r="F78">
-        <v>0</v>
-      </c>
-      <c r="H78" s="1">
+        <v>1</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="I78" s="1">
         <v>41582.520691516205</v>
       </c>
-      <c r="I78" s="1">
+      <c r="J78" s="1">
         <v>41582.71261678241</v>
       </c>
-      <c r="J78">
-        <v>0</v>
-      </c>
       <c r="K78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>128</v>
       </c>
       <c r="B79" t="s">
+        <v>164</v>
+      </c>
+      <c r="C79" t="s">
         <v>125</v>
       </c>
-      <c r="C79" s="1">
+      <c r="D79" s="1">
         <v>41584.979166666664</v>
       </c>
-      <c r="D79" s="1">
+      <c r="E79" s="1">
         <v>41585.333333333336</v>
       </c>
-      <c r="E79">
-        <v>1</v>
-      </c>
       <c r="F79">
         <v>1</v>
       </c>
-      <c r="H79" s="1">
+      <c r="G79">
+        <v>1</v>
+      </c>
+      <c r="I79" s="1">
         <v>41584.979178240741</v>
       </c>
-      <c r="I79" s="1">
+      <c r="J79" s="1">
         <v>41584.694276469905</v>
       </c>
-      <c r="J79">
-        <v>0</v>
-      </c>
       <c r="K79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>129</v>
       </c>
       <c r="B80" t="s">
+        <v>164</v>
+      </c>
+      <c r="C80" t="s">
         <v>126</v>
       </c>
-      <c r="C80" s="1">
+      <c r="D80" s="1">
         <v>41585.738888888889</v>
       </c>
-      <c r="D80" s="1">
+      <c r="E80" s="1">
         <v>41586.875</v>
       </c>
-      <c r="E80">
-        <v>1</v>
-      </c>
       <c r="F80">
         <v>1</v>
       </c>
-      <c r="G80" t="s">
+      <c r="G80">
+        <v>1</v>
+      </c>
+      <c r="H80" t="s">
         <v>127</v>
       </c>
-      <c r="H80" s="1">
+      <c r="I80" s="1">
         <v>41585.782534953702</v>
       </c>
-      <c r="I80" s="1">
+      <c r="J80" s="1">
         <v>41585.782528668984</v>
       </c>
-      <c r="J80">
-        <v>0</v>
-      </c>
       <c r="K80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>130</v>
       </c>
       <c r="B81" t="s">
+        <v>164</v>
+      </c>
+      <c r="C81" t="s">
         <v>128</v>
       </c>
-      <c r="C81" s="1">
+      <c r="D81" s="1">
         <v>41586.614583333336</v>
       </c>
-      <c r="D81" s="1">
+      <c r="E81" s="1">
         <v>41587.78125</v>
       </c>
-      <c r="E81">
-        <v>1</v>
-      </c>
       <c r="F81">
-        <v>0</v>
-      </c>
-      <c r="H81" s="1">
+        <v>1</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="I81" s="1">
         <v>41586.615902546298</v>
       </c>
-      <c r="I81" s="1">
+      <c r="J81" s="1">
         <v>41590.566298113423</v>
       </c>
-      <c r="J81">
-        <v>0</v>
-      </c>
       <c r="K81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>131</v>
       </c>
       <c r="B82" t="s">
+        <v>164</v>
+      </c>
+      <c r="C82" t="s">
         <v>129</v>
       </c>
-      <c r="C82" s="1">
+      <c r="D82" s="1">
         <v>41590.591666666667</v>
       </c>
-      <c r="D82" s="1">
+      <c r="E82" s="1">
         <v>41620.591666666667</v>
       </c>
-      <c r="E82">
-        <v>1</v>
-      </c>
       <c r="F82">
         <v>1</v>
       </c>
-      <c r="G82" t="s">
+      <c r="G82">
+        <v>1</v>
+      </c>
+      <c r="H82" t="s">
         <v>130</v>
       </c>
-      <c r="H82" s="1">
+      <c r="I82" s="1">
         <v>41590.634678472219</v>
       </c>
-      <c r="I82" s="1">
+      <c r="J82" s="1">
         <v>41605.871865821762</v>
       </c>
-      <c r="J82">
-        <v>0</v>
-      </c>
       <c r="K82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>132</v>
       </c>
       <c r="B83" t="s">
+        <v>164</v>
+      </c>
+      <c r="C83" t="s">
         <v>131</v>
       </c>
-      <c r="C83" s="1">
+      <c r="D83" s="1">
         <v>41593.5</v>
       </c>
-      <c r="D83" s="1">
+      <c r="E83" s="1">
         <v>41593.895833333336</v>
       </c>
-      <c r="E83">
-        <v>1</v>
-      </c>
       <c r="F83">
-        <v>0</v>
-      </c>
-      <c r="H83" s="1">
+        <v>1</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="I83" s="1">
         <v>41593.50000378472</v>
       </c>
-      <c r="I83" s="1">
+      <c r="J83" s="1">
         <v>41593.774289849534</v>
       </c>
-      <c r="J83">
-        <v>0</v>
-      </c>
       <c r="K83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>133</v>
       </c>
       <c r="B84" t="s">
+        <v>164</v>
+      </c>
+      <c r="C84" t="s">
         <v>132</v>
       </c>
-      <c r="C84" s="1">
+      <c r="D84" s="1">
         <v>41596.413194444445</v>
       </c>
-      <c r="D84" s="1">
+      <c r="E84" s="1">
         <v>41597.458333333336</v>
       </c>
-      <c r="E84">
-        <v>1</v>
-      </c>
       <c r="F84">
         <v>1</v>
       </c>
-      <c r="H84" s="1">
+      <c r="G84">
+        <v>1</v>
+      </c>
+      <c r="I84" s="1">
         <v>41596.41331866898</v>
       </c>
-      <c r="I84" s="1">
+      <c r="J84" s="1">
         <v>41596.413336192127</v>
       </c>
-      <c r="J84">
-        <v>0</v>
-      </c>
       <c r="K84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>134</v>
       </c>
       <c r="B85" t="s">
+        <v>164</v>
+      </c>
+      <c r="C85" t="s">
         <v>133</v>
       </c>
-      <c r="C85" s="1">
+      <c r="D85" s="1">
         <v>41631.427083333336</v>
       </c>
-      <c r="D85" s="1">
+      <c r="E85" s="1">
         <v>41655.75</v>
       </c>
-      <c r="E85">
-        <v>1</v>
-      </c>
       <c r="F85">
         <v>1</v>
       </c>
-      <c r="G85" t="s">
+      <c r="G85">
+        <v>1</v>
+      </c>
+      <c r="H85" t="s">
         <v>134</v>
       </c>
-      <c r="H85" s="1">
+      <c r="I85" s="1">
         <v>41631.697610532407</v>
       </c>
-      <c r="I85" s="1">
+      <c r="J85" s="1">
         <v>41631.69747658565</v>
       </c>
-      <c r="J85">
-        <v>1</v>
-      </c>
       <c r="K85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>135</v>
       </c>
       <c r="B86" t="s">
+        <v>164</v>
+      </c>
+      <c r="C86" t="s">
         <v>135</v>
       </c>
-      <c r="C86" s="1">
+      <c r="D86" s="1">
         <v>41604.467361111114</v>
       </c>
-      <c r="D86" s="1">
+      <c r="E86" s="1">
         <v>41605.854166666664</v>
       </c>
-      <c r="E86">
-        <v>1</v>
-      </c>
       <c r="F86">
         <v>1</v>
       </c>
-      <c r="G86" t="s">
+      <c r="G86">
+        <v>1</v>
+      </c>
+      <c r="H86" t="s">
         <v>136</v>
       </c>
-      <c r="H86" s="1">
+      <c r="I86" s="1">
         <v>41604.580957986109</v>
       </c>
-      <c r="I86" s="1">
+      <c r="J86" s="1">
         <v>41605.614557407411</v>
       </c>
-      <c r="J86">
-        <v>0</v>
-      </c>
       <c r="K86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>136</v>
       </c>
       <c r="B87" t="s">
+        <v>164</v>
+      </c>
+      <c r="C87" t="s">
         <v>137</v>
       </c>
-      <c r="C87" s="1">
+      <c r="D87" s="1">
         <v>41641.290972222225</v>
       </c>
-      <c r="D87" s="1">
+      <c r="E87" s="1">
         <v>41641.770833333336</v>
       </c>
-      <c r="E87">
-        <v>1</v>
-      </c>
       <c r="F87">
         <v>1</v>
       </c>
-      <c r="H87" s="1">
+      <c r="G87">
+        <v>1</v>
+      </c>
+      <c r="I87" s="1">
         <v>41641.444135381942</v>
       </c>
-      <c r="I87" s="1">
+      <c r="J87" s="1">
         <v>41641.443762881943</v>
       </c>
-      <c r="J87">
-        <v>0</v>
-      </c>
       <c r="K87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>137</v>
       </c>
       <c r="B88" t="s">
+        <v>164</v>
+      </c>
+      <c r="C88" t="s">
         <v>138</v>
       </c>
-      <c r="C88" s="1">
+      <c r="D88" s="1">
         <v>41618.375</v>
       </c>
-      <c r="D88" s="1">
+      <c r="E88" s="1">
         <v>41618.708333333336</v>
       </c>
-      <c r="E88">
-        <v>1</v>
-      </c>
       <c r="F88">
         <v>1</v>
       </c>
-      <c r="H88" s="1">
+      <c r="G88">
+        <v>1</v>
+      </c>
+      <c r="I88" s="1">
         <v>41618.375004201385</v>
       </c>
-      <c r="I88" s="1">
+      <c r="J88" s="1">
         <v>41618.353252002315</v>
       </c>
-      <c r="J88">
-        <v>0</v>
-      </c>
       <c r="K88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>138</v>
       </c>
       <c r="B89" t="s">
+        <v>165</v>
+      </c>
+      <c r="C89" t="s">
         <v>139</v>
       </c>
-      <c r="C89" s="1">
+      <c r="D89" s="1">
         <v>41628.354166666664</v>
       </c>
-      <c r="D89" s="1">
+      <c r="E89" s="1">
         <v>41628.895833333336</v>
       </c>
-      <c r="E89">
-        <v>1</v>
-      </c>
       <c r="F89">
         <v>1</v>
       </c>
-      <c r="G89" t="s">
+      <c r="G89">
+        <v>1</v>
+      </c>
+      <c r="H89" t="s">
         <v>140</v>
       </c>
-      <c r="H89" s="1">
+      <c r="I89" s="1">
         <v>41628.364780057869</v>
       </c>
-      <c r="I89" s="1">
+      <c r="J89" s="1">
         <v>41628.36474016204</v>
       </c>
-      <c r="J89">
-        <v>0</v>
-      </c>
       <c r="K89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>139</v>
       </c>
       <c r="B90" t="s">
+        <v>164</v>
+      </c>
+      <c r="C90" t="s">
         <v>141</v>
       </c>
-      <c r="C90" s="1">
+      <c r="D90" s="1">
         <v>41618.375</v>
       </c>
-      <c r="D90" s="1">
+      <c r="E90" s="1">
         <v>41618.708333333336</v>
       </c>
-      <c r="E90">
-        <v>1</v>
-      </c>
       <c r="F90">
         <v>1</v>
       </c>
-      <c r="H90" s="1">
+      <c r="G90">
+        <v>1</v>
+      </c>
+      <c r="I90" s="1">
         <v>41618.375007604169</v>
       </c>
-      <c r="I90" s="1">
+      <c r="J90" s="1">
         <v>41618.349372025463</v>
       </c>
-      <c r="J90">
-        <v>0</v>
-      </c>
       <c r="K90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>140</v>
       </c>
       <c r="B91" t="s">
+        <v>164</v>
+      </c>
+      <c r="C91" t="s">
         <v>142</v>
       </c>
-      <c r="C91" s="1">
+      <c r="D91" s="1">
         <v>41625.341666666667</v>
       </c>
-      <c r="D91" s="1">
+      <c r="E91" s="1">
         <v>41625.756944444445</v>
       </c>
-      <c r="E91">
-        <v>1</v>
-      </c>
       <c r="F91">
         <v>1</v>
       </c>
-      <c r="H91" s="1">
+      <c r="G91">
+        <v>1</v>
+      </c>
+      <c r="I91" s="1">
         <v>41625.342653935186</v>
       </c>
-      <c r="I91" s="1">
+      <c r="J91" s="1">
         <v>41625.342462187502</v>
       </c>
-      <c r="J91">
-        <v>0</v>
-      </c>
       <c r="K91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>141</v>
       </c>
       <c r="B92" t="s">
+        <v>165</v>
+      </c>
+      <c r="C92" t="s">
         <v>143</v>
       </c>
-      <c r="C92" s="1">
+      <c r="D92" s="1">
         <v>41628.34097222222</v>
       </c>
-      <c r="D92" s="1">
+      <c r="E92" s="1">
         <v>41628.882638888892</v>
       </c>
-      <c r="E92">
-        <v>1</v>
-      </c>
       <c r="F92">
         <v>1</v>
       </c>
-      <c r="G92" t="s">
+      <c r="G92">
+        <v>1</v>
+      </c>
+      <c r="H92" t="s">
         <v>144</v>
       </c>
-      <c r="H92" s="1">
+      <c r="I92" s="1">
         <v>41628.366376041668</v>
       </c>
-      <c r="I92" s="1">
+      <c r="J92" s="1">
         <v>41628.366122881947</v>
       </c>
-      <c r="J92">
-        <v>0</v>
-      </c>
       <c r="K92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>142</v>
       </c>
       <c r="B93" t="s">
+        <v>164</v>
+      </c>
+      <c r="C93" t="s">
         <v>145</v>
       </c>
-      <c r="C93" s="1">
+      <c r="D93" s="1">
         <v>41626.401388888888</v>
       </c>
-      <c r="D93" s="1">
+      <c r="E93" s="1">
         <v>41626.526388888888</v>
       </c>
-      <c r="E93">
-        <v>1</v>
-      </c>
       <c r="F93">
         <v>1</v>
       </c>
-      <c r="H93" s="1">
+      <c r="G93">
+        <v>1</v>
+      </c>
+      <c r="I93" s="1">
         <v>41626.401915312497</v>
       </c>
-      <c r="I93" s="1">
+      <c r="J93" s="1">
         <v>41626.401734224535</v>
       </c>
-      <c r="J93">
-        <v>0</v>
-      </c>
       <c r="K93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>143</v>
       </c>
       <c r="B94" t="s">
+        <v>163</v>
+      </c>
+      <c r="C94" t="s">
         <v>146</v>
       </c>
-      <c r="C94" s="1">
+      <c r="D94" s="1">
         <v>41627.504861111112</v>
       </c>
-      <c r="D94" s="1">
+      <c r="E94" s="1">
         <v>41627.713194444441</v>
       </c>
-      <c r="E94">
-        <v>1</v>
-      </c>
       <c r="F94">
         <v>1</v>
       </c>
-      <c r="H94" s="1">
+      <c r="G94">
+        <v>1</v>
+      </c>
+      <c r="I94" s="1">
         <v>41627.50618665509</v>
       </c>
-      <c r="I94" s="1">
+      <c r="J94" s="1">
         <v>41627.505893981484</v>
       </c>
-      <c r="J94">
-        <v>0</v>
-      </c>
       <c r="K94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>144</v>
       </c>
       <c r="B95" t="s">
+        <v>164</v>
+      </c>
+      <c r="C95" t="s">
         <v>147</v>
       </c>
-      <c r="C95" s="1">
+      <c r="D95" s="1">
         <v>41639.334722222222</v>
       </c>
-      <c r="D95" s="1">
+      <c r="E95" s="1">
         <v>41640.751388888886</v>
       </c>
-      <c r="E95">
-        <v>1</v>
-      </c>
       <c r="F95">
         <v>1</v>
       </c>
-      <c r="H95" s="1">
+      <c r="G95">
+        <v>1</v>
+      </c>
+      <c r="I95" s="1">
         <v>41639.336198807869</v>
       </c>
-      <c r="I95" s="1">
+      <c r="J95" s="1">
         <v>41639.336323923613</v>
       </c>
-      <c r="J95">
-        <v>0</v>
-      </c>
       <c r="K95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>145</v>
       </c>
       <c r="B96" t="s">
+        <v>164</v>
+      </c>
+      <c r="C96" t="s">
         <v>148</v>
       </c>
-      <c r="C96" s="1">
+      <c r="D96" s="1">
         <v>41641.352777777778</v>
       </c>
-      <c r="D96" s="1">
+      <c r="E96" s="1">
         <v>41641.769444444442</v>
       </c>
-      <c r="E96">
-        <v>1</v>
-      </c>
       <c r="F96">
         <v>1</v>
       </c>
-      <c r="H96" s="1">
+      <c r="G96">
+        <v>1</v>
+      </c>
+      <c r="I96" s="1">
         <v>41641.442924340277</v>
       </c>
-      <c r="I96" s="1">
+      <c r="J96" s="1">
         <v>41641.442614699074</v>
       </c>
-      <c r="J96">
-        <v>0</v>
-      </c>
       <c r="K96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>146</v>
       </c>
       <c r="B97" t="s">
+        <v>166</v>
+      </c>
+      <c r="C97" t="s">
         <v>149</v>
       </c>
-      <c r="C97" s="1">
+      <c r="D97" s="1">
         <v>41653.731944444444</v>
       </c>
-      <c r="D97" s="1">
+      <c r="E97" s="1">
         <v>41653.78125</v>
       </c>
-      <c r="E97">
-        <v>1</v>
-      </c>
       <c r="F97">
         <v>1</v>
       </c>
-      <c r="G97" t="s">
+      <c r="G97">
+        <v>1</v>
+      </c>
+      <c r="H97" t="s">
         <v>150</v>
       </c>
-      <c r="H97" s="1">
+      <c r="I97" s="1">
         <v>41653.774502233799</v>
       </c>
-      <c r="I97" s="1">
+      <c r="J97" s="1">
         <v>41653.780506747687</v>
       </c>
-      <c r="J97">
-        <v>0</v>
-      </c>
       <c r="K97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>147</v>
       </c>
       <c r="B98" t="s">
+        <v>166</v>
+      </c>
+      <c r="C98" t="s">
         <v>151</v>
       </c>
-      <c r="C98" s="1">
+      <c r="D98" s="1">
         <v>41653.963888888888</v>
       </c>
-      <c r="D98" s="1">
+      <c r="E98" s="1">
         <v>41654.010416666664</v>
       </c>
-      <c r="E98">
-        <v>1</v>
-      </c>
       <c r="F98">
         <v>1</v>
       </c>
-      <c r="H98" s="1">
+      <c r="G98">
+        <v>1</v>
+      </c>
+      <c r="I98" s="1">
         <v>41654.00717866898</v>
       </c>
-      <c r="I98" s="1">
+      <c r="J98" s="1">
         <v>41654.007341898148</v>
       </c>
-      <c r="J98">
-        <v>0</v>
-      </c>
       <c r="K98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>148</v>
       </c>
       <c r="B99" t="s">
+        <v>166</v>
+      </c>
+      <c r="C99" t="s">
         <v>152</v>
       </c>
-      <c r="C99" s="1">
+      <c r="D99" s="1">
         <v>41653.96597222222</v>
       </c>
-      <c r="D99" s="1">
+      <c r="E99" s="1">
         <v>41654.013888888891</v>
       </c>
-      <c r="E99">
-        <v>1</v>
-      </c>
       <c r="F99">
         <v>1</v>
       </c>
-      <c r="H99" s="1">
+      <c r="G99">
+        <v>1</v>
+      </c>
+      <c r="I99" s="1">
         <v>41654.008071064818</v>
       </c>
-      <c r="I99" s="1">
+      <c r="J99" s="1">
         <v>41654.007796956015</v>
       </c>
-      <c r="J99">
-        <v>0</v>
-      </c>
       <c r="K99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>149</v>
       </c>
       <c r="B100" t="s">
+        <v>166</v>
+      </c>
+      <c r="C100" t="s">
         <v>153</v>
       </c>
-      <c r="C100" s="1">
+      <c r="D100" s="1">
         <v>41653.966666666667</v>
       </c>
-      <c r="D100" s="1">
+      <c r="E100" s="1">
         <v>41654.015277777777</v>
       </c>
-      <c r="E100">
-        <v>1</v>
-      </c>
       <c r="F100">
         <v>1</v>
       </c>
-      <c r="H100" s="1">
+      <c r="G100">
+        <v>1</v>
+      </c>
+      <c r="I100" s="1">
         <v>41654.008899918983</v>
       </c>
-      <c r="I100" s="1">
+      <c r="J100" s="1">
         <v>41654.008605752315</v>
       </c>
-      <c r="J100">
-        <v>0</v>
-      </c>
       <c r="K100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>150</v>
       </c>
       <c r="B101" t="s">
+        <v>166</v>
+      </c>
+      <c r="C101" t="s">
         <v>154</v>
       </c>
-      <c r="C101" s="1">
+      <c r="D101" s="1">
         <v>41653.998611111114</v>
       </c>
-      <c r="D101" s="1">
+      <c r="E101" s="1">
         <v>41654.045138888891</v>
       </c>
-      <c r="E101">
-        <v>1</v>
-      </c>
       <c r="F101">
         <v>1</v>
       </c>
-      <c r="H101" s="1">
+      <c r="G101">
+        <v>1</v>
+      </c>
+      <c r="I101" s="1">
         <v>41654.040539270834</v>
       </c>
-      <c r="I101" s="1">
+      <c r="J101" s="1">
         <v>41654.040379976854</v>
       </c>
-      <c r="J101">
-        <v>0</v>
-      </c>
       <c r="K101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>151</v>
       </c>
       <c r="B102" t="s">
+        <v>166</v>
+      </c>
+      <c r="C102" t="s">
         <v>155</v>
       </c>
-      <c r="C102" s="1">
+      <c r="D102" s="1">
         <v>41653.999305555553</v>
       </c>
-      <c r="D102" s="1">
+      <c r="E102" s="1">
         <v>41654.048611111109</v>
       </c>
-      <c r="E102">
-        <v>1</v>
-      </c>
       <c r="F102">
         <v>1</v>
       </c>
-      <c r="H102" s="1">
+      <c r="G102">
+        <v>1</v>
+      </c>
+      <c r="I102" s="1">
         <v>41654.040985648149</v>
       </c>
-      <c r="I102" s="1">
+      <c r="J102" s="1">
         <v>41654.040854548613</v>
       </c>
-      <c r="J102">
-        <v>0</v>
-      </c>
       <c r="K102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>152</v>
       </c>
       <c r="B103" t="s">
+        <v>166</v>
+      </c>
+      <c r="C103" t="s">
         <v>156</v>
       </c>
-      <c r="C103" s="1">
+      <c r="D103" s="1">
         <v>41653.999305555553</v>
       </c>
-      <c r="D103" s="1">
+      <c r="E103" s="1">
         <v>41654.052083333336</v>
       </c>
-      <c r="E103">
-        <v>1</v>
-      </c>
       <c r="F103">
         <v>1</v>
       </c>
-      <c r="H103" s="1">
+      <c r="G103">
+        <v>1</v>
+      </c>
+      <c r="I103" s="1">
         <v>41654.041431863428</v>
       </c>
-      <c r="I103" s="1">
+      <c r="J103" s="1">
         <v>41654.041282719911</v>
       </c>
-      <c r="J103">
-        <v>0</v>
-      </c>
       <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
         <v>0</v>
       </c>
     </row>
